--- a/techniqo/data_new_ticker/ARVINDFASN.xlsx
+++ b/techniqo/data_new_ticker/ARVINDFASN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G375"/>
+  <dimension ref="A1:G377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13511,6 +13511,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="C376" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="D376" t="n">
+        <v>135.95</v>
+      </c>
+      <c r="E376" t="n">
+        <v>138.15</v>
+      </c>
+      <c r="F376" t="n">
+        <v>180171</v>
+      </c>
+      <c r="G376" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>140</v>
+      </c>
+      <c r="C377" t="n">
+        <v>140</v>
+      </c>
+      <c r="D377" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="E377" t="n">
+        <v>136.05</v>
+      </c>
+      <c r="F377" t="n">
+        <v>155606</v>
+      </c>
+      <c r="G377" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ARVINDFASN.xlsx
+++ b/techniqo/data_new_ticker/ARVINDFASN.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G377"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13561,6 +13561,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="C378" t="n">
+        <v>139.15</v>
+      </c>
+      <c r="D378" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="E378" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="F378" t="n">
+        <v>146762</v>
+      </c>
+      <c r="G378" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>134.25</v>
+      </c>
+      <c r="C379" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="D379" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="E379" t="n">
+        <v>132.35</v>
+      </c>
+      <c r="F379" t="n">
+        <v>159720</v>
+      </c>
+      <c r="G379" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
